--- a/biology/Zoologie/Cephalotes_adolphi/Cephalotes_adolphi.xlsx
+++ b/biology/Zoologie/Cephalotes_adolphi/Cephalotes_adolphi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes adolphi est une espèce de fourmis arboricoles du genre Cephalotes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes adolphi est une espèce de fourmis arboricoles du genre Cephalotes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mato Grosso au Brésil[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mato Grosso au Brésil.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(it) Emery, 1906 : Studi sulle formiche della fauna neotropica. XXVI. Bullettino della Società Entomologica Italiana, vol. 37, 107-194.</t>
         </is>
